--- a/outputs-r202/c__Lentisphaeria_train.xlsx
+++ b/outputs-r202/c__Lentisphaeria_train.xlsx
@@ -607,17 +607,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.1333333</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.8666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.8666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>o__Lentisphaerales</t>
+          <t>o__UBA1407</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003477185.1_14.fasta</t>
+          <t>GB_GCA_003477185.1_1.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -771,7 +771,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003477185.1_17.fasta</t>
+          <t>GB_GCA_003477185.1_10.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -792,7 +792,7 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003477185.1_3.fasta</t>
+          <t>GB_GCA_003477185.1_11.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -813,7 +813,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003477185.1_7.fasta</t>
+          <t>GB_GCA_003477185.1_18.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -834,7 +834,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000170755.1_1.fasta</t>
+          <t>GB_GCA_003477185.1_6.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -855,7 +855,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000170755.1_10.fasta</t>
+          <t>RS_GCF_000170755.1_6.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -876,7 +876,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000170755.1_12.fasta</t>
+          <t>GB_GCA_003477185.1_0.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -897,7 +897,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000170755.1_16.fasta</t>
+          <t>RS_GCF_000170755.1_15.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -918,28 +918,28 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000170755.1_18.fasta</t>
+          <t>RS_GCF_000170755.1_19.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.1555556</v>
       </c>
       <c r="C20" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.8444444000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.8444444000000001</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>o__Lentisphaerales</t>
+          <t>o__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000170755.1_9.fasta</t>
+          <t>RS_GCF_000170755.1_2.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -960,7 +960,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003477185.1_12.fasta</t>
+          <t>RS_GCF_000170755.1_7.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -981,7 +981,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003477185.1_16.fasta</t>
+          <t>GB_GCA_003477185.1_13.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1002,7 +1002,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003477185.1_4.fasta</t>
+          <t>GB_GCA_003477185.1_15.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1023,7 +1023,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003477185.1_5.fasta</t>
+          <t>GB_GCA_003477185.1_19.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1044,7 +1044,7 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000170755.1_0.fasta</t>
+          <t>GB_GCA_003477185.1_2.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1065,7 +1065,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000170755.1_11.fasta</t>
+          <t>GB_GCA_003477185.1_8.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1086,7 +1086,7 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000170755.1_13.fasta</t>
+          <t>GB_GCA_003477185.1_9.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1107,7 +1107,7 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000170755.1_14.fasta</t>
+          <t>GB_GCA_003477185.1_12.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1128,7 +1128,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000170755.1_17.fasta</t>
+          <t>GB_GCA_003477185.1_16.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1149,7 +1149,7 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000170755.1_3.fasta</t>
+          <t>GB_GCA_003477185.1_4.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1170,7 +1170,7 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000170755.1_4.fasta</t>
+          <t>GB_GCA_003477185.1_5.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1191,7 +1191,7 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000170755.1_5.fasta</t>
+          <t>RS_GCF_000170755.1_0.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1212,7 +1212,7 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000170755.1_8.fasta</t>
+          <t>RS_GCF_000170755.1_11.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1233,7 +1233,7 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003477185.1_13.fasta</t>
+          <t>RS_GCF_000170755.1_13.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1254,7 +1254,7 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003477185.1_15.fasta</t>
+          <t>RS_GCF_000170755.1_14.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1275,7 +1275,7 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003477185.1_19.fasta</t>
+          <t>RS_GCF_000170755.1_17.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1296,7 +1296,7 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003477185.1_2.fasta</t>
+          <t>RS_GCF_000170755.1_3.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1317,7 +1317,7 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003477185.1_8.fasta</t>
+          <t>RS_GCF_000170755.1_4.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1338,7 +1338,7 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003477185.1_9.fasta</t>
+          <t>RS_GCF_000170755.1_5.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1359,7 +1359,7 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003477185.1_0.fasta</t>
+          <t>RS_GCF_000170755.1_8.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1380,7 +1380,7 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000170755.1_15.fasta</t>
+          <t>GB_GCA_003477185.1_14.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1401,28 +1401,28 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000170755.1_19.fasta</t>
+          <t>GB_GCA_003477185.1_17.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1555556</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8444444000000001</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8444444000000001</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>o__UBA1407</t>
+          <t>o__Lentisphaerales</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000170755.1_2.fasta</t>
+          <t>GB_GCA_003477185.1_3.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1443,28 +1443,28 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000170755.1_7.fasta</t>
+          <t>GB_GCA_003477185.1_7.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.1333333</v>
       </c>
       <c r="C45" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.8666667</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.8666667</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>o__Lentisphaerales</t>
+          <t>o__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003477185.1_1.fasta</t>
+          <t>RS_GCF_000170755.1_1.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1485,7 +1485,7 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003477185.1_10.fasta</t>
+          <t>RS_GCF_000170755.1_10.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1506,7 +1506,7 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003477185.1_11.fasta</t>
+          <t>RS_GCF_000170755.1_12.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1527,7 +1527,7 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003477185.1_18.fasta</t>
+          <t>RS_GCF_000170755.1_16.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1548,7 +1548,7 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003477185.1_6.fasta</t>
+          <t>RS_GCF_000170755.1_18.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1569,7 +1569,7 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000170755.1_6.fasta</t>
+          <t>RS_GCF_000170755.1_9.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2602,7 +2602,7 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_0.fasta</t>
+          <t>GB_GCA_001603055.1_1.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2623,7 +2623,7 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_10.fasta</t>
+          <t>GB_GCA_001603055.1_13.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2644,7 +2644,7 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_14.fasta</t>
+          <t>GB_GCA_001603055.1_2.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2665,7 +2665,7 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_17.fasta</t>
+          <t>GB_GCA_001603055.1_3.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2686,7 +2686,7 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_4.fasta</t>
+          <t>GB_GCA_001603055.1_5.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2707,7 +2707,7 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_8.fasta</t>
+          <t>GB_GCA_002068325.1_11.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2728,7 +2728,7 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_0.fasta</t>
+          <t>GB_GCA_002068325.1_13.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2749,7 +2749,7 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_1.fasta</t>
+          <t>GB_GCA_002068325.1_14.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2770,7 +2770,7 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_18.fasta</t>
+          <t>GB_GCA_002068325.1_16.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2791,7 +2791,7 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_6.fasta</t>
+          <t>GB_GCA_002068325.1_2.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2812,7 +2812,7 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_8.fasta</t>
+          <t>GB_GCA_002068325.1_7.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2833,7 +2833,7 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_10.fasta</t>
+          <t>GB_GCA_002068325.1_8.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2854,7 +2854,7 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_6.fasta</t>
+          <t>GB_GCA_003245525.1_11.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2875,7 +2875,7 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_8.fasta</t>
+          <t>GB_GCA_003552565.1_14.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2896,7 +2896,7 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_12.fasta</t>
+          <t>GB_GCA_003552565.1_16.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2917,7 +2917,7 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_16.fasta</t>
+          <t>GB_GCA_003552565.1_18.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2938,7 +2938,7 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_18.fasta</t>
+          <t>GB_GCA_003552565.1_7.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2959,7 +2959,7 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_2.fasta</t>
+          <t>GB_GCA_007130365.1_1.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2980,7 +2980,7 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_3.fasta</t>
+          <t>GB_GCA_007130365.1_13.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3001,7 +3001,7 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_6.fasta</t>
+          <t>GB_GCA_007130365.1_7.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3022,7 +3022,7 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_0.fasta</t>
+          <t>GB_GCA_007133055.1_18.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -3043,7 +3043,7 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_11.fasta</t>
+          <t>GB_GCA_007133055.1_2.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -3064,7 +3064,7 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_15.fasta</t>
+          <t>GB_GCA_007133055.1_4.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -3085,7 +3085,7 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_11.fasta</t>
+          <t>GB_GCA_013151865.1_0.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -3106,7 +3106,7 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_18.fasta</t>
+          <t>GB_GCA_013151865.1_1.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -3127,7 +3127,7 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_9.fasta</t>
+          <t>GB_GCA_013151865.1_13.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -3148,7 +3148,7 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_17.fasta</t>
+          <t>GB_GCA_013151865.1_17.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3169,7 +3169,7 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_3.fasta</t>
+          <t>GB_GCA_013151865.1_4.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -3190,7 +3190,7 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_1.fasta</t>
+          <t>GB_GCA_013151865.1_6.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3211,7 +3211,7 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_10.fasta</t>
+          <t>GB_GCA_903834675.1_10.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -3232,7 +3232,7 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_15.fasta</t>
+          <t>GB_GCA_903834675.1_15.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -3253,7 +3253,7 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_18.fasta</t>
+          <t>GB_GCA_903834675.1_4.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3274,7 +3274,7 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_10.fasta</t>
+          <t>GB_GCA_903834675.1_6.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3295,7 +3295,7 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_13.fasta</t>
+          <t>GB_GCA_903834675.1_7.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3316,7 +3316,7 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_14.fasta</t>
+          <t>GB_GCA_903834675.1_9.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3337,7 +3337,7 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_19.fasta</t>
+          <t>GB_GCA_903837355.1_0.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3358,7 +3358,7 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_8.fasta</t>
+          <t>GB_GCA_903837355.1_4.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3379,7 +3379,7 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_13.fasta</t>
+          <t>GB_GCA_903837355.1_6.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3400,7 +3400,7 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_18.fasta</t>
+          <t>GB_GCA_903837355.1_7.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3421,7 +3421,7 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_7.fasta</t>
+          <t>GB_GCA_903837355.1_8.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3442,7 +3442,7 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_9.fasta</t>
+          <t>GB_GCA_903894975.1_0.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3463,7 +3463,7 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_0.fasta</t>
+          <t>GB_GCA_903894975.1_11.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3484,7 +3484,7 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_11.fasta</t>
+          <t>GB_GCA_903894975.1_12.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -3505,7 +3505,7 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_2.fasta</t>
+          <t>GB_GCA_903894975.1_2.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -3526,7 +3526,7 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_6.fasta</t>
+          <t>GB_GCA_903896595.1_4.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -3547,7 +3547,7 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_9.fasta</t>
+          <t>GB_GCA_903896595.1_5.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -3568,7 +3568,7 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_11.fasta</t>
+          <t>GB_GCA_903921725.1_10.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -3589,7 +3589,7 @@
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_12.fasta</t>
+          <t>GB_GCA_903921725.1_14.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -3610,7 +3610,7 @@
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_15.fasta</t>
+          <t>GB_GCA_903921725.1_15.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -3631,7 +3631,7 @@
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_19.fasta</t>
+          <t>GB_GCA_903921725.1_18.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -3652,7 +3652,7 @@
     <row r="98">
       <c r="A98" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_6.fasta</t>
+          <t>GB_GCA_001603055.1_16.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -3673,7 +3673,7 @@
     <row r="99">
       <c r="A99" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_9.fasta</t>
+          <t>GB_GCA_001603055.1_18.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -3694,7 +3694,7 @@
     <row r="100">
       <c r="A100" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_15.fasta</t>
+          <t>GB_GCA_002068325.1_12.fasta</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -3715,7 +3715,7 @@
     <row r="101">
       <c r="A101" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_9.fasta</t>
+          <t>GB_GCA_002068325.1_19.fasta</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -3736,7 +3736,7 @@
     <row r="102">
       <c r="A102" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_12.fasta</t>
+          <t>GB_GCA_002068325.1_3.fasta</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -3757,7 +3757,7 @@
     <row r="103">
       <c r="A103" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_15.fasta</t>
+          <t>GB_GCA_003245525.1_13.fasta</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -3778,7 +3778,7 @@
     <row r="104">
       <c r="A104" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_19.fasta</t>
+          <t>GB_GCA_003245525.1_3.fasta</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -3799,7 +3799,7 @@
     <row r="105">
       <c r="A105" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_2.fasta</t>
+          <t>GB_GCA_003245525.1_4.fasta</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -3820,7 +3820,7 @@
     <row r="106">
       <c r="A106" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_1.fasta</t>
+          <t>GB_GCA_003245525.1_5.fasta</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -3841,7 +3841,7 @@
     <row r="107">
       <c r="A107" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_12.fasta</t>
+          <t>GB_GCA_003245525.1_6.fasta</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -3862,7 +3862,7 @@
     <row r="108">
       <c r="A108" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_9.fasta</t>
+          <t>GB_GCA_003552565.1_0.fasta</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -3883,7 +3883,7 @@
     <row r="109">
       <c r="A109" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_11.fasta</t>
+          <t>GB_GCA_003552565.1_11.fasta</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -3904,7 +3904,7 @@
     <row r="110">
       <c r="A110" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_14.fasta</t>
+          <t>GB_GCA_003552565.1_3.fasta</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -3925,17 +3925,17 @@
     <row r="111">
       <c r="A111" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_19.fasta</t>
+          <t>GB_GCA_003552565.1_4.fasta</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>0.1555556</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0.8444444000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>0.8444444000000001</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
     <row r="112">
       <c r="A112" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_1.fasta</t>
+          <t>GB_GCA_003552565.1_5.fasta</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -3967,7 +3967,7 @@
     <row r="113">
       <c r="A113" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_10.fasta</t>
+          <t>GB_GCA_007130365.1_10.fasta</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -3988,7 +3988,7 @@
     <row r="114">
       <c r="A114" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_13.fasta</t>
+          <t>GB_GCA_007130365.1_4.fasta</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -4009,7 +4009,7 @@
     <row r="115">
       <c r="A115" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_8.fasta</t>
+          <t>GB_GCA_007130365.1_5.fasta</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -4030,7 +4030,7 @@
     <row r="116">
       <c r="A116" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_19.fasta</t>
+          <t>GB_GCA_007130365.1_8.fasta</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -4051,7 +4051,7 @@
     <row r="117">
       <c r="A117" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_2.fasta</t>
+          <t>GB_GCA_007133055.1_12.fasta</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -4072,7 +4072,7 @@
     <row r="118">
       <c r="A118" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_7.fasta</t>
+          <t>GB_GCA_007133055.1_14.fasta</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -4093,7 +4093,7 @@
     <row r="119">
       <c r="A119" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_0.fasta</t>
+          <t>GB_GCA_007133055.1_17.fasta</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -4114,7 +4114,7 @@
     <row r="120">
       <c r="A120" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_16.fasta</t>
+          <t>GB_GCA_007133055.1_19.fasta</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -4135,7 +4135,7 @@
     <row r="121">
       <c r="A121" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_8.fasta</t>
+          <t>GB_GCA_007133055.1_3.fasta</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -4156,7 +4156,7 @@
     <row r="122">
       <c r="A122" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_11.fasta</t>
+          <t>GB_GCA_007133055.1_7.fasta</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -4177,7 +4177,7 @@
     <row r="123">
       <c r="A123" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_16.fasta</t>
+          <t>GB_GCA_013151865.1_10.fasta</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -4198,7 +4198,7 @@
     <row r="124">
       <c r="A124" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_2.fasta</t>
+          <t>GB_GCA_013151865.1_14.fasta</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -4219,7 +4219,7 @@
     <row r="125">
       <c r="A125" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_9.fasta</t>
+          <t>GB_GCA_013151865.1_15.fasta</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -4240,7 +4240,7 @@
     <row r="126">
       <c r="A126" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_18.fasta</t>
+          <t>GB_GCA_013151865.1_16.fasta</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -4261,7 +4261,7 @@
     <row r="127">
       <c r="A127" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_4.fasta</t>
+          <t>GB_GCA_013151865.1_3.fasta</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -4282,7 +4282,7 @@
     <row r="128">
       <c r="A128" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_5.fasta</t>
+          <t>GB_GCA_013151865.1_8.fasta</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -4303,7 +4303,7 @@
     <row r="129">
       <c r="A129" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_7.fasta</t>
+          <t>GB_GCA_903834675.1_1.fasta</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -4324,7 +4324,7 @@
     <row r="130">
       <c r="A130" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_0.fasta</t>
+          <t>GB_GCA_903834675.1_13.fasta</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -4345,7 +4345,7 @@
     <row r="131">
       <c r="A131" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_1.fasta</t>
+          <t>GB_GCA_903834675.1_14.fasta</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -4366,7 +4366,7 @@
     <row r="132">
       <c r="A132" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_17.fasta</t>
+          <t>GB_GCA_903834675.1_2.fasta</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -4387,7 +4387,7 @@
     <row r="133">
       <c r="A133" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_1.fasta</t>
+          <t>GB_GCA_903837355.1_12.fasta</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -4408,7 +4408,7 @@
     <row r="134">
       <c r="A134" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_12.fasta</t>
+          <t>GB_GCA_903837355.1_14.fasta</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -4429,7 +4429,7 @@
     <row r="135">
       <c r="A135" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_19.fasta</t>
+          <t>GB_GCA_903837355.1_17.fasta</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -4450,7 +4450,7 @@
     <row r="136">
       <c r="A136" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_5.fasta</t>
+          <t>GB_GCA_903837355.1_3.fasta</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -4471,7 +4471,7 @@
     <row r="137">
       <c r="A137" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_8.fasta</t>
+          <t>GB_GCA_903894975.1_15.fasta</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -4492,7 +4492,7 @@
     <row r="138">
       <c r="A138" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_7.fasta</t>
+          <t>GB_GCA_903894975.1_16.fasta</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -4513,7 +4513,7 @@
     <row r="139">
       <c r="A139" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_10.fasta</t>
+          <t>GB_GCA_903894975.1_17.fasta</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -4534,7 +4534,7 @@
     <row r="140">
       <c r="A140" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_17.fasta</t>
+          <t>GB_GCA_903894975.1_3.fasta</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -4555,7 +4555,7 @@
     <row r="141">
       <c r="A141" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_4.fasta</t>
+          <t>GB_GCA_903894975.1_9.fasta</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -4576,7 +4576,7 @@
     <row r="142">
       <c r="A142" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_5.fasta</t>
+          <t>GB_GCA_903896595.1_15.fasta</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -4597,7 +4597,7 @@
     <row r="143">
       <c r="A143" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_0.fasta</t>
+          <t>GB_GCA_903896595.1_16.fasta</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -4618,7 +4618,7 @@
     <row r="144">
       <c r="A144" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_1.fasta</t>
+          <t>GB_GCA_903896595.1_3.fasta</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -4639,7 +4639,7 @@
     <row r="145">
       <c r="A145" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_10.fasta</t>
+          <t>GB_GCA_903896595.1_6.fasta</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -4660,7 +4660,7 @@
     <row r="146">
       <c r="A146" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_14.fasta</t>
+          <t>GB_GCA_903921725.1_16.fasta</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -4681,7 +4681,7 @@
     <row r="147">
       <c r="A147" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_16.fasta</t>
+          <t>GB_GCA_903921725.1_17.fasta</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -4702,17 +4702,17 @@
     <row r="148">
       <c r="A148" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_17.fasta</t>
+          <t>GCA_902776645.1_Rumen_uncultured_genome_RUG12186_genomic.fna</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>0.1555556</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0.8444444000000001</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>0.8444444000000001</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
     <row r="149">
       <c r="A149" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_18.fasta</t>
+          <t>GB_GCA_001603055.1_7.fasta</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -4744,7 +4744,7 @@
     <row r="150">
       <c r="A150" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_7.fasta</t>
+          <t>GB_GCA_002068325.1_10.fasta</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -4765,7 +4765,7 @@
     <row r="151">
       <c r="A151" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_9.fasta</t>
+          <t>GB_GCA_002068325.1_17.fasta</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -4786,7 +4786,7 @@
     <row r="152">
       <c r="A152" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_13.fasta</t>
+          <t>GB_GCA_002068325.1_4.fasta</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -4807,7 +4807,7 @@
     <row r="153">
       <c r="A153" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_15.fasta</t>
+          <t>GB_GCA_002068325.1_5.fasta</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -4828,7 +4828,7 @@
     <row r="154">
       <c r="A154" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_17.fasta</t>
+          <t>GB_GCA_003245525.1_0.fasta</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -4849,7 +4849,7 @@
     <row r="155">
       <c r="A155" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_19.fasta</t>
+          <t>GB_GCA_003245525.1_1.fasta</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -4870,7 +4870,7 @@
     <row r="156">
       <c r="A156" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_2.fasta</t>
+          <t>GB_GCA_003245525.1_10.fasta</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -4891,7 +4891,7 @@
     <row r="157">
       <c r="A157" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_0.fasta</t>
+          <t>GB_GCA_003245525.1_14.fasta</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -4912,7 +4912,7 @@
     <row r="158">
       <c r="A158" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_15.fasta</t>
+          <t>GB_GCA_003245525.1_16.fasta</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -4933,7 +4933,7 @@
     <row r="159">
       <c r="A159" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_17.fasta</t>
+          <t>GB_GCA_003245525.1_17.fasta</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -4954,7 +4954,7 @@
     <row r="160">
       <c r="A160" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_9.fasta</t>
+          <t>GB_GCA_003245525.1_18.fasta</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -4975,7 +4975,7 @@
     <row r="161">
       <c r="A161" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_16.fasta</t>
+          <t>GB_GCA_003245525.1_7.fasta</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -4996,7 +4996,7 @@
     <row r="162">
       <c r="A162" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_5.fasta</t>
+          <t>GB_GCA_003245525.1_9.fasta</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -5017,7 +5017,7 @@
     <row r="163">
       <c r="A163" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_6.fasta</t>
+          <t>GB_GCA_003552565.1_13.fasta</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -5038,7 +5038,7 @@
     <row r="164">
       <c r="A164" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_9.fasta</t>
+          <t>GB_GCA_003552565.1_15.fasta</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -5059,7 +5059,7 @@
     <row r="165">
       <c r="A165" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_12.fasta</t>
+          <t>GB_GCA_003552565.1_17.fasta</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -5080,7 +5080,7 @@
     <row r="166">
       <c r="A166" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_5.fasta</t>
+          <t>GB_GCA_003552565.1_19.fasta</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -5101,7 +5101,7 @@
     <row r="167">
       <c r="A167" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_11.fasta</t>
+          <t>GB_GCA_003552565.1_2.fasta</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -5122,7 +5122,7 @@
     <row r="168">
       <c r="A168" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_12.fasta</t>
+          <t>GB_GCA_007130365.1_0.fasta</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -5143,7 +5143,7 @@
     <row r="169">
       <c r="A169" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_18.fasta</t>
+          <t>GB_GCA_007130365.1_15.fasta</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -5164,7 +5164,7 @@
     <row r="170">
       <c r="A170" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_19.fasta</t>
+          <t>GB_GCA_007130365.1_17.fasta</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -5185,7 +5185,7 @@
     <row r="171">
       <c r="A171" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_5.fasta</t>
+          <t>GB_GCA_007130365.1_9.fasta</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -5206,7 +5206,7 @@
     <row r="172">
       <c r="A172" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_13.fasta</t>
+          <t>GB_GCA_007133055.1_16.fasta</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -5227,7 +5227,7 @@
     <row r="173">
       <c r="A173" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_19.fasta</t>
+          <t>GB_GCA_007133055.1_5.fasta</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -5248,7 +5248,7 @@
     <row r="174">
       <c r="A174" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_5.fasta</t>
+          <t>GB_GCA_007133055.1_6.fasta</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -5269,7 +5269,7 @@
     <row r="175">
       <c r="A175" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_1.fasta</t>
+          <t>GB_GCA_007133055.1_9.fasta</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -5290,7 +5290,7 @@
     <row r="176">
       <c r="A176" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_6.fasta</t>
+          <t>GB_GCA_013151865.1_12.fasta</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -5311,7 +5311,7 @@
     <row r="177">
       <c r="A177" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_10.fasta</t>
+          <t>GB_GCA_013151865.1_5.fasta</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -5332,7 +5332,7 @@
     <row r="178">
       <c r="A178" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_11.fasta</t>
+          <t>GB_GCA_903834675.1_11.fasta</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -5353,7 +5353,7 @@
     <row r="179">
       <c r="A179" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_12.fasta</t>
+          <t>GB_GCA_903834675.1_12.fasta</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -5374,7 +5374,7 @@
     <row r="180">
       <c r="A180" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_14.fasta</t>
+          <t>GB_GCA_903834675.1_18.fasta</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -5395,7 +5395,7 @@
     <row r="181">
       <c r="A181" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_19.fasta</t>
+          <t>GB_GCA_903834675.1_19.fasta</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -5416,7 +5416,7 @@
     <row r="182">
       <c r="A182" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_2.fasta</t>
+          <t>GB_GCA_903834675.1_5.fasta</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -5437,7 +5437,7 @@
     <row r="183">
       <c r="A183" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_8.fasta</t>
+          <t>GB_GCA_903837355.1_13.fasta</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -5458,7 +5458,7 @@
     <row r="184">
       <c r="A184" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_13.fasta</t>
+          <t>GB_GCA_903837355.1_19.fasta</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -5479,7 +5479,7 @@
     <row r="185">
       <c r="A185" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_3.fasta</t>
+          <t>GB_GCA_903837355.1_5.fasta</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -5500,7 +5500,7 @@
     <row r="186">
       <c r="A186" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_4.fasta</t>
+          <t>GB_GCA_903894975.1_1.fasta</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -5521,7 +5521,7 @@
     <row r="187">
       <c r="A187" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_7.fasta</t>
+          <t>GB_GCA_903894975.1_6.fasta</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -5542,7 +5542,7 @@
     <row r="188">
       <c r="A188" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_16.fasta</t>
+          <t>GB_GCA_903896595.1_10.fasta</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -5563,7 +5563,7 @@
     <row r="189">
       <c r="A189" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_18.fasta</t>
+          <t>GB_GCA_903896595.1_11.fasta</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -5584,7 +5584,7 @@
     <row r="190">
       <c r="A190" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_12.fasta</t>
+          <t>GB_GCA_903896595.1_12.fasta</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -5605,7 +5605,7 @@
     <row r="191">
       <c r="A191" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_19.fasta</t>
+          <t>GB_GCA_903896595.1_14.fasta</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -5626,7 +5626,7 @@
     <row r="192">
       <c r="A192" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_3.fasta</t>
+          <t>GB_GCA_903896595.1_19.fasta</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -5647,7 +5647,7 @@
     <row r="193">
       <c r="A193" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_13.fasta</t>
+          <t>GB_GCA_903896595.1_2.fasta</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -5668,7 +5668,7 @@
     <row r="194">
       <c r="A194" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_3.fasta</t>
+          <t>GB_GCA_903896595.1_8.fasta</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -5689,7 +5689,7 @@
     <row r="195">
       <c r="A195" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_4.fasta</t>
+          <t>GB_GCA_903921725.1_13.fasta</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -5710,7 +5710,7 @@
     <row r="196">
       <c r="A196" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_5.fasta</t>
+          <t>GB_GCA_903921725.1_3.fasta</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -5731,7 +5731,7 @@
     <row r="197">
       <c r="A197" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_6.fasta</t>
+          <t>GB_GCA_903921725.1_4.fasta</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -5752,7 +5752,7 @@
     <row r="198">
       <c r="A198" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_0.fasta</t>
+          <t>GB_GCA_903921725.1_7.fasta</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -5773,7 +5773,7 @@
     <row r="199">
       <c r="A199" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_11.fasta</t>
+          <t>GB_GCA_001603055.1_11.fasta</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -5794,7 +5794,7 @@
     <row r="200">
       <c r="A200" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_3.fasta</t>
+          <t>GB_GCA_001603055.1_12.fasta</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -5815,17 +5815,17 @@
     <row r="201">
       <c r="A201" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_4.fasta</t>
+          <t>GB_GCA_001603055.1_15.fasta</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.1555556</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>0.8444444000000001</v>
+        <v>1</v>
       </c>
       <c r="D201" t="n">
-        <v>0.8444444000000001</v>
+        <v>1</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
     <row r="202">
       <c r="A202" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_5.fasta</t>
+          <t>GB_GCA_001603055.1_19.fasta</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -5857,7 +5857,7 @@
     <row r="203">
       <c r="A203" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_10.fasta</t>
+          <t>GB_GCA_001603055.1_6.fasta</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -5878,7 +5878,7 @@
     <row r="204">
       <c r="A204" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_4.fasta</t>
+          <t>GB_GCA_001603055.1_9.fasta</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -5899,7 +5899,7 @@
     <row r="205">
       <c r="A205" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_5.fasta</t>
+          <t>GB_GCA_002068325.1_15.fasta</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -5920,7 +5920,7 @@
     <row r="206">
       <c r="A206" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_8.fasta</t>
+          <t>GB_GCA_002068325.1_9.fasta</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -5941,7 +5941,7 @@
     <row r="207">
       <c r="A207" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_12.fasta</t>
+          <t>GB_GCA_003245525.1_12.fasta</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -5962,7 +5962,7 @@
     <row r="208">
       <c r="A208" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_14.fasta</t>
+          <t>GB_GCA_003245525.1_15.fasta</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -5983,7 +5983,7 @@
     <row r="209">
       <c r="A209" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_17.fasta</t>
+          <t>GB_GCA_003245525.1_19.fasta</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -6004,7 +6004,7 @@
     <row r="210">
       <c r="A210" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_19.fasta</t>
+          <t>GB_GCA_003245525.1_2.fasta</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -6025,7 +6025,7 @@
     <row r="211">
       <c r="A211" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_3.fasta</t>
+          <t>GB_GCA_003552565.1_1.fasta</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -6046,7 +6046,7 @@
     <row r="212">
       <c r="A212" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_7.fasta</t>
+          <t>GB_GCA_003552565.1_12.fasta</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -6067,7 +6067,7 @@
     <row r="213">
       <c r="A213" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_10.fasta</t>
+          <t>GB_GCA_003552565.1_9.fasta</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -6088,7 +6088,7 @@
     <row r="214">
       <c r="A214" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_14.fasta</t>
+          <t>GB_GCA_007130365.1_11.fasta</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -6109,7 +6109,7 @@
     <row r="215">
       <c r="A215" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_15.fasta</t>
+          <t>GB_GCA_007130365.1_14.fasta</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -6130,7 +6130,7 @@
     <row r="216">
       <c r="A216" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_16.fasta</t>
+          <t>GB_GCA_007130365.1_19.fasta</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -6151,7 +6151,7 @@
     <row r="217">
       <c r="A217" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_3.fasta</t>
+          <t>GB_GCA_007133055.1_1.fasta</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -6172,7 +6172,7 @@
     <row r="218">
       <c r="A218" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_8.fasta</t>
+          <t>GB_GCA_007133055.1_10.fasta</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -6193,7 +6193,7 @@
     <row r="219">
       <c r="A219" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_1.fasta</t>
+          <t>GB_GCA_007133055.1_13.fasta</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -6214,7 +6214,7 @@
     <row r="220">
       <c r="A220" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_13.fasta</t>
+          <t>GB_GCA_007133055.1_8.fasta</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -6235,7 +6235,7 @@
     <row r="221">
       <c r="A221" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_14.fasta</t>
+          <t>GB_GCA_013151865.1_19.fasta</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -6256,7 +6256,7 @@
     <row r="222">
       <c r="A222" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_2.fasta</t>
+          <t>GB_GCA_013151865.1_2.fasta</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -6277,7 +6277,7 @@
     <row r="223">
       <c r="A223" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_12.fasta</t>
+          <t>GB_GCA_013151865.1_7.fasta</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -6298,7 +6298,7 @@
     <row r="224">
       <c r="A224" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_14.fasta</t>
+          <t>GB_GCA_903834675.1_0.fasta</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -6319,7 +6319,7 @@
     <row r="225">
       <c r="A225" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_17.fasta</t>
+          <t>GB_GCA_903834675.1_16.fasta</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -6340,7 +6340,7 @@
     <row r="226">
       <c r="A226" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_3.fasta</t>
+          <t>GB_GCA_903834675.1_8.fasta</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -6361,7 +6361,7 @@
     <row r="227">
       <c r="A227" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_15.fasta</t>
+          <t>GB_GCA_903837355.1_11.fasta</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -6382,7 +6382,7 @@
     <row r="228">
       <c r="A228" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_16.fasta</t>
+          <t>GB_GCA_903837355.1_16.fasta</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -6403,7 +6403,7 @@
     <row r="229">
       <c r="A229" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_17.fasta</t>
+          <t>GB_GCA_903837355.1_2.fasta</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -6424,7 +6424,7 @@
     <row r="230">
       <c r="A230" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_3.fasta</t>
+          <t>GB_GCA_903837355.1_9.fasta</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -6445,7 +6445,7 @@
     <row r="231">
       <c r="A231" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_9.fasta</t>
+          <t>GB_GCA_903894975.1_18.fasta</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -6466,7 +6466,7 @@
     <row r="232">
       <c r="A232" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_15.fasta</t>
+          <t>GB_GCA_903894975.1_4.fasta</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -6487,7 +6487,7 @@
     <row r="233">
       <c r="A233" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_16.fasta</t>
+          <t>GB_GCA_903894975.1_5.fasta</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -6508,7 +6508,7 @@
     <row r="234">
       <c r="A234" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_3.fasta</t>
+          <t>GB_GCA_903894975.1_7.fasta</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -6529,7 +6529,7 @@
     <row r="235">
       <c r="A235" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_6.fasta</t>
+          <t>GB_GCA_903896595.1_0.fasta</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -6550,7 +6550,7 @@
     <row r="236">
       <c r="A236" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_16.fasta</t>
+          <t>GB_GCA_903896595.1_1.fasta</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -6571,7 +6571,7 @@
     <row r="237">
       <c r="A237" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_17.fasta</t>
+          <t>GB_GCA_903896595.1_17.fasta</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -6592,17 +6592,17 @@
     <row r="238">
       <c r="A238" s="11" t="inlineStr">
         <is>
-          <t>GCA_902776645.1_Rumen_uncultured_genome_RUG12186_genomic.fna</t>
+          <t>GB_GCA_903921725.1_1.fasta</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.1555556</v>
+        <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>0.8444444000000001</v>
+        <v>1</v>
       </c>
       <c r="D238" t="n">
-        <v>0.8444444000000001</v>
+        <v>1</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
     <row r="239">
       <c r="A239" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_1.fasta</t>
+          <t>GB_GCA_903921725.1_12.fasta</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -6634,7 +6634,7 @@
     <row r="240">
       <c r="A240" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_13.fasta</t>
+          <t>GB_GCA_903921725.1_19.fasta</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -6655,7 +6655,7 @@
     <row r="241">
       <c r="A241" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_2.fasta</t>
+          <t>GB_GCA_903921725.1_5.fasta</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -6676,7 +6676,7 @@
     <row r="242">
       <c r="A242" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_3.fasta</t>
+          <t>GB_GCA_903921725.1_8.fasta</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -6697,7 +6697,7 @@
     <row r="243">
       <c r="A243" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_5.fasta</t>
+          <t>GB_GCA_001603055.1_0.fasta</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -6718,7 +6718,7 @@
     <row r="244">
       <c r="A244" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_11.fasta</t>
+          <t>GB_GCA_001603055.1_10.fasta</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -6739,7 +6739,7 @@
     <row r="245">
       <c r="A245" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_13.fasta</t>
+          <t>GB_GCA_001603055.1_14.fasta</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -6760,7 +6760,7 @@
     <row r="246">
       <c r="A246" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_14.fasta</t>
+          <t>GB_GCA_001603055.1_17.fasta</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -6781,7 +6781,7 @@
     <row r="247">
       <c r="A247" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_16.fasta</t>
+          <t>GB_GCA_001603055.1_4.fasta</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -6802,7 +6802,7 @@
     <row r="248">
       <c r="A248" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_2.fasta</t>
+          <t>GB_GCA_001603055.1_8.fasta</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -6823,7 +6823,7 @@
     <row r="249">
       <c r="A249" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_7.fasta</t>
+          <t>GB_GCA_002068325.1_0.fasta</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -6844,7 +6844,7 @@
     <row r="250">
       <c r="A250" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_8.fasta</t>
+          <t>GB_GCA_002068325.1_1.fasta</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -6865,7 +6865,7 @@
     <row r="251">
       <c r="A251" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_11.fasta</t>
+          <t>GB_GCA_002068325.1_18.fasta</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -6886,7 +6886,7 @@
     <row r="252">
       <c r="A252" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_14.fasta</t>
+          <t>GB_GCA_002068325.1_6.fasta</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -6907,7 +6907,7 @@
     <row r="253">
       <c r="A253" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_16.fasta</t>
+          <t>GB_GCA_003245525.1_8.fasta</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -6928,7 +6928,7 @@
     <row r="254">
       <c r="A254" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_18.fasta</t>
+          <t>GB_GCA_003552565.1_10.fasta</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -6949,7 +6949,7 @@
     <row r="255">
       <c r="A255" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_7.fasta</t>
+          <t>GB_GCA_003552565.1_6.fasta</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -6970,7 +6970,7 @@
     <row r="256">
       <c r="A256" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_1.fasta</t>
+          <t>GB_GCA_003552565.1_8.fasta</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -6991,7 +6991,7 @@
     <row r="257">
       <c r="A257" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_13.fasta</t>
+          <t>GB_GCA_007130365.1_12.fasta</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -7012,7 +7012,7 @@
     <row r="258">
       <c r="A258" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_7.fasta</t>
+          <t>GB_GCA_007130365.1_16.fasta</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -7033,7 +7033,7 @@
     <row r="259">
       <c r="A259" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_18.fasta</t>
+          <t>GB_GCA_007130365.1_18.fasta</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -7054,7 +7054,7 @@
     <row r="260">
       <c r="A260" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_2.fasta</t>
+          <t>GB_GCA_007130365.1_2.fasta</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -7075,7 +7075,7 @@
     <row r="261">
       <c r="A261" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_4.fasta</t>
+          <t>GB_GCA_007130365.1_3.fasta</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -7096,7 +7096,7 @@
     <row r="262">
       <c r="A262" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_0.fasta</t>
+          <t>GB_GCA_007130365.1_6.fasta</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -7117,7 +7117,7 @@
     <row r="263">
       <c r="A263" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_1.fasta</t>
+          <t>GB_GCA_007133055.1_0.fasta</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -7138,7 +7138,7 @@
     <row r="264">
       <c r="A264" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_13.fasta</t>
+          <t>GB_GCA_007133055.1_11.fasta</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -7159,7 +7159,7 @@
     <row r="265">
       <c r="A265" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_17.fasta</t>
+          <t>GB_GCA_007133055.1_15.fasta</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -7180,7 +7180,7 @@
     <row r="266">
       <c r="A266" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_4.fasta</t>
+          <t>GB_GCA_013151865.1_11.fasta</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -7201,7 +7201,7 @@
     <row r="267">
       <c r="A267" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_6.fasta</t>
+          <t>GB_GCA_013151865.1_18.fasta</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -7222,7 +7222,7 @@
     <row r="268">
       <c r="A268" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_10.fasta</t>
+          <t>GB_GCA_013151865.1_9.fasta</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -7243,7 +7243,7 @@
     <row r="269">
       <c r="A269" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_15.fasta</t>
+          <t>GB_GCA_903834675.1_17.fasta</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -7264,7 +7264,7 @@
     <row r="270">
       <c r="A270" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_4.fasta</t>
+          <t>GB_GCA_903834675.1_3.fasta</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -7285,7 +7285,7 @@
     <row r="271">
       <c r="A271" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_6.fasta</t>
+          <t>GB_GCA_903837355.1_1.fasta</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -7306,7 +7306,7 @@
     <row r="272">
       <c r="A272" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_7.fasta</t>
+          <t>GB_GCA_903837355.1_10.fasta</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -7327,7 +7327,7 @@
     <row r="273">
       <c r="A273" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_9.fasta</t>
+          <t>GB_GCA_903837355.1_15.fasta</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -7348,7 +7348,7 @@
     <row r="274">
       <c r="A274" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_0.fasta</t>
+          <t>GB_GCA_903837355.1_18.fasta</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -7369,7 +7369,7 @@
     <row r="275">
       <c r="A275" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_4.fasta</t>
+          <t>GB_GCA_903894975.1_10.fasta</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -7390,7 +7390,7 @@
     <row r="276">
       <c r="A276" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_6.fasta</t>
+          <t>GB_GCA_903894975.1_13.fasta</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -7411,7 +7411,7 @@
     <row r="277">
       <c r="A277" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_7.fasta</t>
+          <t>GB_GCA_903894975.1_14.fasta</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -7432,7 +7432,7 @@
     <row r="278">
       <c r="A278" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_8.fasta</t>
+          <t>GB_GCA_903894975.1_19.fasta</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -7453,7 +7453,7 @@
     <row r="279">
       <c r="A279" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_0.fasta</t>
+          <t>GB_GCA_903894975.1_8.fasta</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -7474,7 +7474,7 @@
     <row r="280">
       <c r="A280" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_11.fasta</t>
+          <t>GB_GCA_903896595.1_13.fasta</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -7495,7 +7495,7 @@
     <row r="281">
       <c r="A281" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_12.fasta</t>
+          <t>GB_GCA_903896595.1_18.fasta</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -7516,7 +7516,7 @@
     <row r="282">
       <c r="A282" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_2.fasta</t>
+          <t>GB_GCA_903896595.1_7.fasta</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -7537,7 +7537,7 @@
     <row r="283">
       <c r="A283" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_4.fasta</t>
+          <t>GB_GCA_903896595.1_9.fasta</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -7558,7 +7558,7 @@
     <row r="284">
       <c r="A284" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_5.fasta</t>
+          <t>GB_GCA_903921725.1_0.fasta</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -7579,7 +7579,7 @@
     <row r="285">
       <c r="A285" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_10.fasta</t>
+          <t>GB_GCA_903921725.1_11.fasta</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -7600,7 +7600,7 @@
     <row r="286">
       <c r="A286" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_14.fasta</t>
+          <t>GB_GCA_903921725.1_2.fasta</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -7621,7 +7621,7 @@
     <row r="287">
       <c r="A287" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_15.fasta</t>
+          <t>GB_GCA_903921725.1_6.fasta</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -7642,7 +7642,7 @@
     <row r="288">
       <c r="A288" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_18.fasta</t>
+          <t>GB_GCA_903921725.1_9.fasta</t>
         </is>
       </c>
       <c r="B288" t="n">
